--- a/data/azucena-tekken-8-frame-data.xlsx
+++ b/data/azucena-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>16</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -530,15 +526,11 @@
       <c r="D3" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -564,15 +556,11 @@
       <c r="D4" t="n">
         <v>16</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -598,15 +586,11 @@
       <c r="D5" t="n">
         <v>22</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -632,15 +616,11 @@
       <c r="D6" t="n">
         <v>17</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E6" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>70</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -666,15 +646,11 @@
       <c r="D7" t="n">
         <v>16</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E7" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -700,15 +676,11 @@
       <c r="D8" t="n">
         <v>22</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -734,15 +706,11 @@
       <c r="D9" t="n">
         <v>14</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E9" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -766,15 +734,11 @@
         <v>50</v>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E10" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>70</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -800,15 +764,11 @@
       <c r="D11" t="n">
         <v>18</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>70</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -834,15 +794,11 @@
       <c r="D12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="E12" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -868,15 +824,11 @@
       <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>70</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -902,15 +854,11 @@
       <c r="D14" t="n">
         <v>10</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -936,15 +884,11 @@
       <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -970,15 +914,11 @@
       <c r="D16" t="n">
         <v>10</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1004,15 +944,11 @@
       <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1038,15 +974,11 @@
       <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1072,15 +1004,11 @@
       <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1106,15 +1034,11 @@
       <c r="D20" t="n">
         <v>10</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1140,15 +1064,11 @@
       <c r="D21" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1174,15 +1094,11 @@
       <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1208,15 +1124,11 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E23" t="n">
+        <v>18</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1242,15 +1154,11 @@
       <c r="D24" t="n">
         <v>14</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1276,15 +1184,11 @@
       <c r="D25" t="n">
         <v>12</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1310,15 +1214,11 @@
       <c r="D26" t="n">
         <v>12</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1344,15 +1244,11 @@
       <c r="D27" t="n">
         <v>12</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+19</t>
-        </is>
+      <c r="E27" t="n">
+        <v>11</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1378,15 +1274,11 @@
       <c r="D28" t="n">
         <v>15</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1412,15 +1304,11 @@
       <c r="D29" t="n">
         <v>17</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1446,15 +1334,11 @@
       <c r="D30" t="n">
         <v>17</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1480,15 +1364,11 @@
       <c r="D31" t="n">
         <v>17</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E31" t="n">
+        <v>14</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1514,15 +1394,11 @@
       <c r="D32" t="n">
         <v>18</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1548,15 +1424,11 @@
       <c r="D33" t="n">
         <v>18</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>70</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1582,15 +1454,11 @@
       <c r="D34" t="n">
         <v>17</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E34" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1616,15 +1484,11 @@
       <c r="D35" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="n">
+        <v>17</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1650,15 +1514,11 @@
       <c r="D36" t="n">
         <v>17</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E36" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1684,15 +1544,11 @@
       <c r="D37" t="n">
         <v>17</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>70</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1718,15 +1574,11 @@
       <c r="D38" t="n">
         <v>17</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1752,15 +1604,11 @@
       <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>17</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1786,15 +1634,11 @@
       <c r="D40" t="n">
         <v>16</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E40" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>70</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1820,15 +1664,11 @@
       <c r="D41" t="n">
         <v>16</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E41" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>70</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1854,15 +1694,11 @@
       <c r="D42" t="n">
         <v>13</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1888,15 +1724,11 @@
       <c r="D43" t="n">
         <v>13</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1922,15 +1754,11 @@
       <c r="D44" t="n">
         <v>13</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>70</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1956,15 +1784,11 @@
       <c r="D45" t="n">
         <v>15</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>70</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1990,15 +1814,11 @@
       <c r="D46" t="n">
         <v>17</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2024,15 +1844,11 @@
       <c r="D47" t="n">
         <v>16</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2058,15 +1874,11 @@
       <c r="D48" t="n">
         <v>16</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2092,15 +1904,11 @@
       <c r="D49" t="n">
         <v>20</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2126,15 +1934,11 @@
       <c r="D50" t="n">
         <v>18</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E50" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2160,15 +1964,11 @@
       <c r="D51" t="n">
         <v>18</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>16</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2194,15 +1994,11 @@
       <c r="D52" t="n">
         <v>15</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E52" t="n">
+        <v>14</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2228,15 +2024,11 @@
       <c r="D53" t="n">
         <v>15</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E53" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2262,15 +2054,11 @@
       <c r="D54" t="n">
         <v>15</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E54" t="n">
+        <v>14</v>
+      </c>
+      <c r="F54" t="n">
+        <v>70</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2296,15 +2084,11 @@
       <c r="D55" t="n">
         <v>15</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2330,15 +2114,11 @@
       <c r="D56" t="n">
         <v>15</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2364,15 +2144,11 @@
       <c r="D57" t="n">
         <v>10</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2398,15 +2174,11 @@
       <c r="D58" t="n">
         <v>11</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2432,15 +2204,11 @@
       <c r="D59" t="n">
         <v>16</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2466,15 +2234,11 @@
       <c r="D60" t="n">
         <v>16</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E60" t="n">
+        <v>13</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2500,15 +2264,11 @@
       <c r="D61" t="n">
         <v>19</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2534,15 +2294,11 @@
       <c r="D62" t="n">
         <v>26</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E62" t="n">
+        <v>16</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2568,15 +2324,11 @@
       <c r="D63" t="n">
         <v>14</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2602,15 +2354,11 @@
       <c r="D64" t="n">
         <v>14</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E64" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2636,15 +2384,11 @@
       <c r="D65" t="n">
         <v>14</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2670,15 +2414,11 @@
       <c r="D66" t="n">
         <v>18</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>70</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2704,15 +2444,11 @@
       <c r="D67" t="n">
         <v>18</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E67" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2738,15 +2474,11 @@
       <c r="D68" t="n">
         <v>22</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E68" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>17</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2772,15 +2504,11 @@
       <c r="D69" t="n">
         <v>22</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E69" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>70</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2806,15 +2534,11 @@
       <c r="D70" t="n">
         <v>22</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E70" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2840,15 +2564,11 @@
       <c r="D71" t="n">
         <v>15</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E71" t="n">
+        <v>9</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2874,15 +2594,11 @@
       <c r="D72" t="n">
         <v>15</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E72" t="n">
+        <v>10</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2908,15 +2624,11 @@
       <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E73" t="n">
+        <v>10</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2942,15 +2654,11 @@
       <c r="D74" t="n">
         <v>15</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>70</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2976,15 +2684,11 @@
       <c r="D75" t="n">
         <v>18</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E75" t="n">
+        <v>9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3014,15 +2718,11 @@
       <c r="D76" t="n">
         <v>17</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E76" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>70</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3048,15 +2748,11 @@
       <c r="D77" t="n">
         <v>21</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E77" t="n">
+        <v>16</v>
+      </c>
+      <c r="F77" t="n">
+        <v>70</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3082,15 +2778,11 @@
       <c r="D78" t="n">
         <v>21</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E78" t="n">
+        <v>14</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3116,15 +2808,11 @@
       <c r="D79" t="n">
         <v>24</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E79" t="n">
+        <v>8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3150,15 +2838,11 @@
       <c r="D80" t="n">
         <v>15</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E80" t="n">
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>70</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3184,15 +2868,11 @@
       <c r="D81" t="n">
         <v>25</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3218,15 +2898,11 @@
       <c r="D82" t="n">
         <v>21</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-14+4</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E82" t="n">
+        <v>14</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3252,15 +2928,11 @@
       <c r="D83" t="n">
         <v>15</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3286,15 +2958,11 @@
       <c r="D84" t="n">
         <v>15</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E84" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>70</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3320,15 +2988,11 @@
       <c r="D85" t="n">
         <v>10</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3354,15 +3018,11 @@
       <c r="D86" t="n">
         <v>11</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3388,15 +3048,11 @@
       <c r="D87" t="n">
         <v>16</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E87" t="n">
+        <v>17</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-6</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3422,15 +3078,11 @@
       <c r="D88" t="n">
         <v>12</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-4</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3456,15 +3108,11 @@
       <c r="D89" t="n">
         <v>13</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>6</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3490,15 +3138,11 @@
       <c r="D90" t="n">
         <v>15</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E90" t="n">
+        <v>13</v>
+      </c>
+      <c r="F90" t="n">
+        <v>70</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3524,15 +3168,11 @@
       <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E91" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>16</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3558,15 +3198,11 @@
       <c r="D92" t="n">
         <v>11</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3592,15 +3228,11 @@
       <c r="D93" t="n">
         <v>11</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3626,15 +3258,11 @@
       <c r="D94" t="n">
         <v>11</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E94" t="n">
+        <v>14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3660,15 +3288,11 @@
       <c r="D95" t="n">
         <v>18</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E95" t="n">
+        <v>13</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3694,15 +3318,11 @@
       <c r="D96" t="n">
         <v>13</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E96" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3728,15 +3348,11 @@
       <c r="D97" t="n">
         <v>13</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3762,15 +3378,11 @@
       <c r="D98" t="n">
         <v>13</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="E98" t="n">
+        <v>15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3800,15 +3412,11 @@
       <c r="D99" t="n">
         <v>13</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E99" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>70</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3834,15 +3442,11 @@
       <c r="D100" t="n">
         <v>14</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3868,15 +3472,11 @@
       <c r="D101" t="n">
         <v>14</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E101" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>70</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3902,15 +3502,11 @@
       <c r="D102" t="n">
         <v>14</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+11	</t>
-        </is>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3936,15 +3532,11 @@
       <c r="D103" t="n">
         <v>16</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E103" t="n">
+        <v>9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3970,15 +3562,11 @@
       <c r="D104" t="n">
         <v>16</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E104" t="n">
+        <v>10</v>
+      </c>
+      <c r="F104" t="n">
+        <v>7</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4004,15 +3592,11 @@
       <c r="D105" t="n">
         <v>15</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>7</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -4038,15 +3622,11 @@
       <c r="D106" t="n">
         <v>15</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -4072,15 +3652,11 @@
       <c r="D107" t="n">
         <v>15</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E107" t="n">
+        <v>10</v>
+      </c>
+      <c r="F107" t="n">
+        <v>70</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -4106,15 +3682,11 @@
       <c r="D108" t="n">
         <v>15</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -4140,15 +3712,11 @@
       <c r="D109" t="n">
         <v>18</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E109" t="n">
+        <v>14</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -4174,15 +3742,11 @@
       <c r="D110" t="n">
         <v>16</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E110" t="n">
+        <v>5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>70</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -4208,15 +3772,11 @@
       <c r="D111" t="n">
         <v>19</v>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
+      <c r="E111" t="n">
+        <v>31</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-2</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4242,15 +3802,11 @@
       <c r="D112" t="n">
         <v>19</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E112" t="n">
+        <v>7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4276,15 +3832,11 @@
       <c r="D113" t="n">
         <v>16</v>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E113" t="n">
+        <v>9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>70</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4292,6 +3844,4710 @@
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DB+3+4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>30</v>
+      </c>
+      <c r="D114" t="n">
+        <v>26</v>
+      </c>
+      <c r="E114" t="n">
+        <v>16</v>
+      </c>
+      <c r="F114" t="n">
+        <v>70</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B+1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>14</v>
+      </c>
+      <c r="D115" t="n">
+        <v>14</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B+1,1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>30</v>
+      </c>
+      <c r="D116" t="n">
+        <v>14</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B+1,1,2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>H,H,H</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>50</v>
+      </c>
+      <c r="D117" t="n">
+        <v>14</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>70</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B+2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>21</v>
+      </c>
+      <c r="D118" t="n">
+        <v>18</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>70</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Heat B+2, F</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>21</v>
+      </c>
+      <c r="D119" t="n">
+        <v>18</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F119" t="n">
+        <v>70</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B+3 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>21</v>
+      </c>
+      <c r="D120" t="n">
+        <v>22</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>17</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Heat B+3,F</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>21</v>
+      </c>
+      <c r="D121" t="n">
+        <v>22</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>70</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B+3</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>21</v>
+      </c>
+      <c r="D122" t="n">
+        <v>22</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B+4</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B+4,3</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>20</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B+4,3,4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M,M,M </t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>36</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15</v>
+      </c>
+      <c r="E125" t="n">
+        <v>10</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B+4,3,4,3</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>M,M,M,H</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>59</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>70</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>UF+1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>18</v>
+      </c>
+      <c r="D127" t="n">
+        <v>18</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>7</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Parry Punch(H/M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>UF+2</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>23</v>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>70</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>UF+3</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>20</v>
+      </c>
+      <c r="D129" t="n">
+        <v>21</v>
+      </c>
+      <c r="E129" t="n">
+        <v>16</v>
+      </c>
+      <c r="F129" t="n">
+        <v>70</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>UF+3,4</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>37</v>
+      </c>
+      <c r="D130" t="n">
+        <v>21</v>
+      </c>
+      <c r="E130" t="n">
+        <v>14</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>UF+4</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>20</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>70</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>FF3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>70</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>FF4</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>21</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>13</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>FF3+4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>M,M,SP</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>28</v>
+      </c>
+      <c r="D134" t="n">
+        <v>21</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>FFF3</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>10</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>FFF3,2</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>37</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>70</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>FC 1</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>FC 2</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>FC 3</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="n">
+        <v>17</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>FC 4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WS 1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>17</v>
+      </c>
+      <c r="D141" t="n">
+        <v>13</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WS 2</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>14</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F142" t="n">
+        <v>70</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WS 3</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>23</v>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>+16</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WS 4</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>13</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WS 4,1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>23</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WS 4,1,3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>46</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14</v>
+      </c>
+      <c r="F146" t="n">
+        <v>70</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>FC DF+3</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>17</v>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Libertador 1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>14</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Libertador 1,2</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>34</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>70</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Libertador 1,2,B</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>14</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 1,2,F</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>H,H,SP</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>34</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>70</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Libertador 2 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>18</v>
+      </c>
+      <c r="D152" t="n">
+        <v>14</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 2,F</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>18</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>70</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Libertador 2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>18</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14</v>
+      </c>
+      <c r="E154" t="n">
+        <v>8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>11</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+11	</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Libertador 3</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>L,SP</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>15</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16</v>
+      </c>
+      <c r="E155" t="n">
+        <v>9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Libertador 3,1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>L,M,SP</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>35</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16</v>
+      </c>
+      <c r="E156" t="n">
+        <v>10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Libertador 4</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>14</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Libertador 4,1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>24</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Libertador 4,1,2</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>47</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>10</v>
+      </c>
+      <c r="F159" t="n">
+        <v>70</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Libertador 4,2</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>35</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13</v>
+      </c>
+      <c r="F160" t="n">
+        <v>70</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Libertador 1+2</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>23</v>
+      </c>
+      <c r="D161" t="n">
+        <v>18</v>
+      </c>
+      <c r="E161" t="n">
+        <v>14</v>
+      </c>
+      <c r="F161" t="n">
+        <v>70</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Libertador 3+4</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>25</v>
+      </c>
+      <c r="D162" t="n">
+        <v>16</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>70</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Libertador D+4</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>14</v>
+      </c>
+      <c r="D163" t="n">
+        <v>19</v>
+      </c>
+      <c r="E163" t="n">
+        <v>31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-2	</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Libertador D+4,4</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>41</v>
+      </c>
+      <c r="D164" t="n">
+        <v>19</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>70</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador D+3+4</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>27</v>
+      </c>
+      <c r="D165" t="n">
+        <v>16</v>
+      </c>
+      <c r="E165" t="n">
+        <v>9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>70</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DB+3+4</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>30</v>
+      </c>
+      <c r="D166" t="n">
+        <v>26</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16</v>
+      </c>
+      <c r="F166" t="n">
+        <v>70</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>B+1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>14</v>
+      </c>
+      <c r="D167" t="n">
+        <v>14</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>B+1,1</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>30</v>
+      </c>
+      <c r="D168" t="n">
+        <v>14</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>B+1,1,2</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>H,H,H</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>50</v>
+      </c>
+      <c r="D169" t="n">
+        <v>14</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>70</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>B+2</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>21</v>
+      </c>
+      <c r="D170" t="n">
+        <v>18</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>70</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Heat B+2, F</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>21</v>
+      </c>
+      <c r="D171" t="n">
+        <v>18</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>70</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>B+3 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>21</v>
+      </c>
+      <c r="D172" t="n">
+        <v>22</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>17</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Heat B+3,F</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>21</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>70</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>B+3</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>21</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>B+4</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>10</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15</v>
+      </c>
+      <c r="E175" t="n">
+        <v>9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>B+4,3</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>20</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15</v>
+      </c>
+      <c r="E176" t="n">
+        <v>10</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>B+4,3,4</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M,M,M </t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>36</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15</v>
+      </c>
+      <c r="E177" t="n">
+        <v>10</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>B+4,3,4,3</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>M,M,M,H</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>59</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>70</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>UF+1</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>18</v>
+      </c>
+      <c r="D179" t="n">
+        <v>18</v>
+      </c>
+      <c r="E179" t="n">
+        <v>9</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Parry Punch(H/M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>UF+2</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>23</v>
+      </c>
+      <c r="D180" t="n">
+        <v>17</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>70</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>UF+3</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>20</v>
+      </c>
+      <c r="D181" t="n">
+        <v>21</v>
+      </c>
+      <c r="E181" t="n">
+        <v>16</v>
+      </c>
+      <c r="F181" t="n">
+        <v>70</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>UF+3,4</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>37</v>
+      </c>
+      <c r="D182" t="n">
+        <v>21</v>
+      </c>
+      <c r="E182" t="n">
+        <v>14</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>UF+4</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>20</v>
+      </c>
+      <c r="D183" t="n">
+        <v>24</v>
+      </c>
+      <c r="E183" t="n">
+        <v>8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>70</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>FF3</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>20</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15</v>
+      </c>
+      <c r="E184" t="n">
+        <v>14</v>
+      </c>
+      <c r="F184" t="n">
+        <v>70</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>FF4</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>21</v>
+      </c>
+      <c r="D185" t="n">
+        <v>25</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>13</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>FF3+4</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>M,M,SP</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>28</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21</v>
+      </c>
+      <c r="E186" t="n">
+        <v>14</v>
+      </c>
+      <c r="F186" t="n">
+        <v>5</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>FFF3</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>10</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15</v>
+      </c>
+      <c r="E187" t="n">
+        <v>9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>FFF3,2</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>37</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>70</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>FC 1</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>FC 2</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>8</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>FC 3</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>10</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16</v>
+      </c>
+      <c r="E191" t="n">
+        <v>17</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>FC 4</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>WS 1</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>13</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>6</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>WS 2</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>14</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15</v>
+      </c>
+      <c r="E194" t="n">
+        <v>13</v>
+      </c>
+      <c r="F194" t="n">
+        <v>70</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>WS 3</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>23</v>
+      </c>
+      <c r="D195" t="n">
+        <v>20</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F195" t="n">
+        <v>16</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>+16</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>WS 4</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>13</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>5</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>WS 4,1</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>23</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>WS 4,1,3</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>46</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11</v>
+      </c>
+      <c r="E198" t="n">
+        <v>14</v>
+      </c>
+      <c r="F198" t="n">
+        <v>70</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>FC DF+3</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>17</v>
+      </c>
+      <c r="D199" t="n">
+        <v>18</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Libertador 1</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>14</v>
+      </c>
+      <c r="D200" t="n">
+        <v>13</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>8</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Libertador 1,2</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>34</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13</v>
+      </c>
+      <c r="E201" t="n">
+        <v>5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>70</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Libertador 1,2,B</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>14</v>
+      </c>
+      <c r="D202" t="n">
+        <v>13</v>
+      </c>
+      <c r="E202" t="n">
+        <v>15</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 1,2,F</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>H,H,SP</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>34</v>
+      </c>
+      <c r="D203" t="n">
+        <v>13</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F203" t="n">
+        <v>70</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Libertador 2 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>18</v>
+      </c>
+      <c r="D204" t="n">
+        <v>14</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8</v>
+      </c>
+      <c r="F204" t="n">
+        <v>17</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 2,F</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>18</v>
+      </c>
+      <c r="D205" t="n">
+        <v>14</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>70</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Libertador 2</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>18</v>
+      </c>
+      <c r="D206" t="n">
+        <v>14</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>11</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+11	</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Libertador 3</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>L,SP</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>15</v>
+      </c>
+      <c r="D207" t="n">
+        <v>16</v>
+      </c>
+      <c r="E207" t="n">
+        <v>9</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Libertador 3,1</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>L,M,SP</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>35</v>
+      </c>
+      <c r="D208" t="n">
+        <v>16</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Libertador 4</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>14</v>
+      </c>
+      <c r="D209" t="n">
+        <v>15</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Libertador 4,1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>24</v>
+      </c>
+      <c r="D210" t="n">
+        <v>15</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>4</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Libertador 4,1,2</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>47</v>
+      </c>
+      <c r="D211" t="n">
+        <v>15</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" t="n">
+        <v>70</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Libertador 4,2</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>35</v>
+      </c>
+      <c r="D212" t="n">
+        <v>15</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F212" t="n">
+        <v>70</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Libertador 1+2</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>23</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18</v>
+      </c>
+      <c r="E213" t="n">
+        <v>14</v>
+      </c>
+      <c r="F213" t="n">
+        <v>70</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Libertador 3+4</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>25</v>
+      </c>
+      <c r="D214" t="n">
+        <v>16</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>70</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Libertador D+4</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>14</v>
+      </c>
+      <c r="D215" t="n">
+        <v>19</v>
+      </c>
+      <c r="E215" t="n">
+        <v>31</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-2	</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Libertador D+4,4</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>41</v>
+      </c>
+      <c r="D216" t="n">
+        <v>19</v>
+      </c>
+      <c r="E216" t="n">
+        <v>7</v>
+      </c>
+      <c r="F216" t="n">
+        <v>70</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador D+3+4</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>27</v>
+      </c>
+      <c r="D217" t="n">
+        <v>16</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9</v>
+      </c>
+      <c r="F217" t="n">
+        <v>70</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>DB+3+4</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>30</v>
+      </c>
+      <c r="D218" t="n">
+        <v>26</v>
+      </c>
+      <c r="E218" t="n">
+        <v>16</v>
+      </c>
+      <c r="F218" t="n">
+        <v>70</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>B+1</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>14</v>
+      </c>
+      <c r="D219" t="n">
+        <v>14</v>
+      </c>
+      <c r="E219" t="n">
+        <v>8</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>B+1,1</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>30</v>
+      </c>
+      <c r="D220" t="n">
+        <v>14</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>8</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>B+1,1,2</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>H,H,H</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>50</v>
+      </c>
+      <c r="D221" t="n">
+        <v>14</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5</v>
+      </c>
+      <c r="F221" t="n">
+        <v>70</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>B+2</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>21</v>
+      </c>
+      <c r="D222" t="n">
+        <v>18</v>
+      </c>
+      <c r="E222" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>70</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Heat B+2, F</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>21</v>
+      </c>
+      <c r="D223" t="n">
+        <v>18</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>70</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>B+3 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>21</v>
+      </c>
+      <c r="D224" t="n">
+        <v>22</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>17</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Heat B+3,F</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>21</v>
+      </c>
+      <c r="D225" t="n">
+        <v>22</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>70</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>B+3</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>21</v>
+      </c>
+      <c r="D226" t="n">
+        <v>22</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>B+4</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>10</v>
+      </c>
+      <c r="D227" t="n">
+        <v>15</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>B+4,3</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>20</v>
+      </c>
+      <c r="D228" t="n">
+        <v>15</v>
+      </c>
+      <c r="E228" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>+4</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>B+4,3,4</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M,M,M </t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>36</v>
+      </c>
+      <c r="D229" t="n">
+        <v>15</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>B+4,3,4,3</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>M,M,M,H</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>59</v>
+      </c>
+      <c r="D230" t="n">
+        <v>15</v>
+      </c>
+      <c r="E230" t="n">
+        <v>7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>70</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>UF+1</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>18</v>
+      </c>
+      <c r="D231" t="n">
+        <v>18</v>
+      </c>
+      <c r="E231" t="n">
+        <v>9</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Parry Punch(H/M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>UF+2</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>23</v>
+      </c>
+      <c r="D232" t="n">
+        <v>17</v>
+      </c>
+      <c r="E232" t="n">
+        <v>7</v>
+      </c>
+      <c r="F232" t="n">
+        <v>70</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>UF+3</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>20</v>
+      </c>
+      <c r="D233" t="n">
+        <v>21</v>
+      </c>
+      <c r="E233" t="n">
+        <v>16</v>
+      </c>
+      <c r="F233" t="n">
+        <v>70</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>UF+3,4</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>H,M</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>37</v>
+      </c>
+      <c r="D234" t="n">
+        <v>21</v>
+      </c>
+      <c r="E234" t="n">
+        <v>14</v>
+      </c>
+      <c r="F234" t="n">
+        <v>6</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>UF+4</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>20</v>
+      </c>
+      <c r="D235" t="n">
+        <v>24</v>
+      </c>
+      <c r="E235" t="n">
+        <v>8</v>
+      </c>
+      <c r="F235" t="n">
+        <v>70</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>FF3</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>20</v>
+      </c>
+      <c r="D236" t="n">
+        <v>15</v>
+      </c>
+      <c r="E236" t="n">
+        <v>14</v>
+      </c>
+      <c r="F236" t="n">
+        <v>70</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>FF4</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>21</v>
+      </c>
+      <c r="D237" t="n">
+        <v>25</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>FF3+4</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>M,M,SP</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>28</v>
+      </c>
+      <c r="D238" t="n">
+        <v>21</v>
+      </c>
+      <c r="E238" t="n">
+        <v>14</v>
+      </c>
+      <c r="F238" t="n">
+        <v>5</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>FFF3</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>10</v>
+      </c>
+      <c r="D239" t="n">
+        <v>15</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>FFF3,2</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>37</v>
+      </c>
+      <c r="D240" t="n">
+        <v>15</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>70</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>FC 1</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>5</v>
+      </c>
+      <c r="D241" t="n">
+        <v>10</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>6</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>FC 2</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>11</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4</v>
+      </c>
+      <c r="F242" t="n">
+        <v>7</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>FC 3</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>10</v>
+      </c>
+      <c r="D243" t="n">
+        <v>16</v>
+      </c>
+      <c r="E243" t="n">
+        <v>17</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>FC 4</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12</v>
+      </c>
+      <c r="E244" t="n">
+        <v>15</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>WS 1</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>17</v>
+      </c>
+      <c r="D245" t="n">
+        <v>13</v>
+      </c>
+      <c r="E245" t="n">
+        <v>8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>WS 2</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>14</v>
+      </c>
+      <c r="D246" t="n">
+        <v>15</v>
+      </c>
+      <c r="E246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F246" t="n">
+        <v>70</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>WS 3</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>23</v>
+      </c>
+      <c r="D247" t="n">
+        <v>20</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F247" t="n">
+        <v>16</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>+16</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>WS 4</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>13</v>
+      </c>
+      <c r="D248" t="n">
+        <v>11</v>
+      </c>
+      <c r="E248" t="n">
+        <v>6</v>
+      </c>
+      <c r="F248" t="n">
+        <v>5</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>WS 4,1</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>23</v>
+      </c>
+      <c r="D249" t="n">
+        <v>11</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>+6</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>WS 4,1,3</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>46</v>
+      </c>
+      <c r="D250" t="n">
+        <v>11</v>
+      </c>
+      <c r="E250" t="n">
+        <v>14</v>
+      </c>
+      <c r="F250" t="n">
+        <v>70</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FC DF+3</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>17</v>
+      </c>
+      <c r="D251" t="n">
+        <v>18</v>
+      </c>
+      <c r="E251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>+13</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Libertador 1</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>14</v>
+      </c>
+      <c r="D252" t="n">
+        <v>13</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>8</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>+8</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Libertador 1,2</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>H,H</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>34</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>70</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Libertador 1,2,B</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>14</v>
+      </c>
+      <c r="D254" t="n">
+        <v>13</v>
+      </c>
+      <c r="E254" t="n">
+        <v>15</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 1,2,F</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>H,H,SP</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>34</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13</v>
+      </c>
+      <c r="E255" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F255" t="n">
+        <v>70</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Libertador 2 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>18</v>
+      </c>
+      <c r="D256" t="n">
+        <v>14</v>
+      </c>
+      <c r="E256" t="n">
+        <v>8</v>
+      </c>
+      <c r="F256" t="n">
+        <v>17</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador 2,F</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>18</v>
+      </c>
+      <c r="D257" t="n">
+        <v>14</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>70</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Libertador 2</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>18</v>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="n">
+        <v>8</v>
+      </c>
+      <c r="F258" t="n">
+        <v>11</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+11	</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Libertador 3</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>L,SP</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>15</v>
+      </c>
+      <c r="D259" t="n">
+        <v>16</v>
+      </c>
+      <c r="E259" t="n">
+        <v>9</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Libertador 3,1</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>L,M,SP</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>35</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Libertador 4</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>14</v>
+      </c>
+      <c r="D261" t="n">
+        <v>15</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>+7</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Libertador 4,1</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>24</v>
+      </c>
+      <c r="D262" t="n">
+        <v>15</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>4</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>+9</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Libertador 4,1,2</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>M,H,M</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>47</v>
+      </c>
+      <c r="D263" t="n">
+        <v>15</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="n">
+        <v>70</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Libertador 4,2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>35</v>
+      </c>
+      <c r="D264" t="n">
+        <v>15</v>
+      </c>
+      <c r="E264" t="n">
+        <v>13</v>
+      </c>
+      <c r="F264" t="n">
+        <v>70</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Libertador 1+2</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>23</v>
+      </c>
+      <c r="D265" t="n">
+        <v>18</v>
+      </c>
+      <c r="E265" t="n">
+        <v>14</v>
+      </c>
+      <c r="F265" t="n">
+        <v>70</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Libertador 3+4</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>25</v>
+      </c>
+      <c r="D266" t="n">
+        <v>16</v>
+      </c>
+      <c r="E266" t="n">
+        <v>5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>70</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Libertador D+4</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>19</v>
+      </c>
+      <c r="E267" t="n">
+        <v>31</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-2	</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Libertador D+4,4</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>L,H</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>41</v>
+      </c>
+      <c r="D268" t="n">
+        <v>19</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7</v>
+      </c>
+      <c r="F268" t="n">
+        <v>70</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Heat&amp;Libertador D+3+4</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>27</v>
+      </c>
+      <c r="D269" t="n">
+        <v>16</v>
+      </c>
+      <c r="E269" t="n">
+        <v>9</v>
+      </c>
+      <c r="F269" t="n">
+        <v>70</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/azucena-tekken-8-frame-data.xlsx
+++ b/data/azucena-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H269"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -527,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
@@ -557,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F4" t="n">
         <v>17</v>
@@ -587,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>17</v>
@@ -617,7 +617,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>70</v>
@@ -647,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>70</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>70</v>
@@ -707,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>70</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>70</v>
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>70</v>
@@ -795,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>70</v>
@@ -825,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F13" t="n">
         <v>70</v>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="n">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
@@ -945,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F17" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F20" t="n">
         <v>70</v>
@@ -1065,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
@@ -1125,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F23" t="n">
         <v>-7</v>
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="n">
         <v>70</v>
@@ -1185,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
@@ -1215,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
@@ -1275,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F30" t="n">
         <v>5</v>
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F31" t="n">
         <v>70</v>
@@ -1395,7 +1395,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F32" t="n">
         <v>5</v>
@@ -1425,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F33" t="n">
         <v>70</v>
@@ -1455,7 +1455,7 @@
         <v>17</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F35" t="n">
         <v>17</v>
@@ -1515,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="E36" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
         <v>70</v>
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F37" t="n">
         <v>70</v>
@@ -1575,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F38" t="n">
         <v>-10</v>
@@ -1605,7 +1605,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F39" t="n">
         <v>17</v>
@@ -1635,7 +1635,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
         <v>70</v>
@@ -1665,7 +1665,7 @@
         <v>16</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F41" t="n">
         <v>70</v>
@@ -1695,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F42" t="n">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F43" t="n">
         <v>4</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F44" t="n">
         <v>70</v>
@@ -1785,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F45" t="n">
         <v>70</v>
@@ -1815,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F46" t="n">
         <v>5</v>
@@ -1845,7 +1845,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -1875,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F48" t="n">
         <v>70</v>
@@ -1905,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F49" t="n">
         <v>4</v>
@@ -1935,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F50" t="n">
         <v>5</v>
@@ -1965,7 +1965,7 @@
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>16</v>
@@ -1995,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F52" t="n">
         <v>-3</v>
@@ -2025,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F54" t="n">
         <v>70</v>
@@ -2085,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F55" t="n">
         <v>-2</v>
@@ -2115,7 +2115,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F56" t="n">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F57" t="n">
         <v>6</v>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F58" t="n">
         <v>7</v>
@@ -2205,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F59" t="n">
         <v>4</v>
@@ -2235,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F60" t="n">
         <v>70</v>
@@ -2265,7 +2265,7 @@
         <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F61" t="n">
         <v>-3</v>
@@ -2295,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F62" t="n">
         <v>70</v>
@@ -2325,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F63" t="n">
         <v>3</v>
@@ -2355,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
         <v>8</v>
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F65" t="n">
         <v>70</v>
@@ -2415,7 +2415,7 @@
         <v>18</v>
       </c>
       <c r="E66" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
         <v>70</v>
@@ -2445,7 +2445,7 @@
         <v>18</v>
       </c>
       <c r="E67" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F67" t="n">
         <v>70</v>
@@ -2475,7 +2475,7 @@
         <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
         <v>17</v>
@@ -2505,7 +2505,7 @@
         <v>22</v>
       </c>
       <c r="E69" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F69" t="n">
         <v>70</v>
@@ -2535,7 +2535,7 @@
         <v>22</v>
       </c>
       <c r="E70" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
@@ -2595,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F72" t="n">
         <v>4</v>
@@ -2625,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F73" t="n">
         <v>-2</v>
@@ -2655,7 +2655,7 @@
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F74" t="n">
         <v>70</v>
@@ -2685,7 +2685,7 @@
         <v>18</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F75" t="n">
         <v>7</v>
@@ -2719,7 +2719,7 @@
         <v>17</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F76" t="n">
         <v>70</v>
@@ -2749,7 +2749,7 @@
         <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F77" t="n">
         <v>70</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="E78" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F78" t="n">
         <v>6</v>
@@ -2809,7 +2809,7 @@
         <v>24</v>
       </c>
       <c r="E79" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F79" t="n">
         <v>70</v>
@@ -2839,7 +2839,7 @@
         <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F80" t="n">
         <v>70</v>
@@ -2899,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F82" t="n">
         <v>5</v>
@@ -2929,7 +2929,7 @@
         <v>15</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F83" t="n">
         <v>-4</v>
@@ -2959,7 +2959,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
         <v>70</v>
@@ -2989,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F85" t="n">
         <v>6</v>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F86" t="n">
         <v>7</v>
@@ -3049,7 +3049,7 @@
         <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F87" t="n">
         <v>-6</v>
@@ -3079,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F88" t="n">
         <v>-4</v>
@@ -3109,7 +3109,7 @@
         <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
@@ -3139,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F90" t="n">
         <v>70</v>
@@ -3169,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
         <v>16</v>
@@ -3199,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F92" t="n">
         <v>5</v>
@@ -3229,7 +3229,7 @@
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F93" t="n">
         <v>6</v>
@@ -3259,7 +3259,7 @@
         <v>11</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F94" t="n">
         <v>70</v>
@@ -3289,7 +3289,7 @@
         <v>18</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F95" t="n">
         <v>3</v>
@@ -3319,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>8</v>
@@ -3349,7 +3349,7 @@
         <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F97" t="n">
         <v>70</v>
@@ -3379,7 +3379,7 @@
         <v>13</v>
       </c>
       <c r="E98" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F98" t="n">
         <v>-10</v>
@@ -3413,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
         <v>70</v>
@@ -3443,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F100" t="n">
         <v>17</v>
@@ -3473,7 +3473,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
         <v>70</v>
@@ -3503,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F102" t="n">
         <v>11</v>
@@ -3533,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="E103" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F103" t="n">
         <v>2</v>
@@ -3563,7 +3563,7 @@
         <v>16</v>
       </c>
       <c r="E104" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F104" t="n">
         <v>7</v>
@@ -3593,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F105" t="n">
         <v>7</v>
@@ -3623,7 +3623,7 @@
         <v>15</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F106" t="n">
         <v>4</v>
@@ -3653,7 +3653,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F107" t="n">
         <v>70</v>
@@ -3683,7 +3683,7 @@
         <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F108" t="n">
         <v>70</v>
@@ -3713,7 +3713,7 @@
         <v>18</v>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F109" t="n">
         <v>70</v>
@@ -3743,7 +3743,7 @@
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F110" t="n">
         <v>70</v>
@@ -3773,7 +3773,7 @@
         <v>19</v>
       </c>
       <c r="E111" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F111" t="n">
         <v>-2</v>
@@ -3803,7 +3803,7 @@
         <v>19</v>
       </c>
       <c r="E112" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F112" t="n">
         <v>70</v>
@@ -3833,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="E113" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F113" t="n">
         <v>70</v>
@@ -3863,7 +3863,7 @@
         <v>26</v>
       </c>
       <c r="E114" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F114" t="n">
         <v>70</v>
@@ -3893,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F115" t="n">
         <v>3</v>
@@ -3923,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
         <v>8</v>
@@ -3953,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F117" t="n">
         <v>70</v>
@@ -3983,7 +3983,7 @@
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>70</v>
@@ -4013,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="E119" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F119" t="n">
         <v>70</v>
@@ -4043,7 +4043,7 @@
         <v>22</v>
       </c>
       <c r="E120" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
         <v>17</v>
@@ -4073,7 +4073,7 @@
         <v>22</v>
       </c>
       <c r="E121" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F121" t="n">
         <v>70</v>
@@ -4103,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="E122" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
         <v>8</v>
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F123" t="n">
         <v>2</v>
@@ -4163,7 +4163,7 @@
         <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F124" t="n">
         <v>4</v>
@@ -4193,7 +4193,7 @@
         <v>15</v>
       </c>
       <c r="E125" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F125" t="n">
         <v>-2</v>
@@ -4223,7 +4223,7 @@
         <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F126" t="n">
         <v>70</v>
@@ -4253,7 +4253,7 @@
         <v>18</v>
       </c>
       <c r="E127" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F127" t="n">
         <v>7</v>
@@ -4287,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F128" t="n">
         <v>70</v>
@@ -4317,7 +4317,7 @@
         <v>21</v>
       </c>
       <c r="E129" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F129" t="n">
         <v>70</v>
@@ -4347,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="E130" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F130" t="n">
         <v>6</v>
@@ -4377,7 +4377,7 @@
         <v>24</v>
       </c>
       <c r="E131" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F131" t="n">
         <v>70</v>
@@ -4407,7 +4407,7 @@
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F132" t="n">
         <v>70</v>
@@ -4467,7 +4467,7 @@
         <v>21</v>
       </c>
       <c r="E134" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F134" t="n">
         <v>5</v>
@@ -4497,7 +4497,7 @@
         <v>15</v>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F135" t="n">
         <v>-4</v>
@@ -4527,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="E136" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F136" t="n">
         <v>70</v>
@@ -4557,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F137" t="n">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>11</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F138" t="n">
         <v>7</v>
@@ -4617,7 +4617,7 @@
         <v>16</v>
       </c>
       <c r="E139" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F139" t="n">
         <v>-6</v>
@@ -4647,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F140" t="n">
         <v>-4</v>
@@ -4677,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F141" t="n">
         <v>6</v>
@@ -4707,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F142" t="n">
         <v>70</v>
@@ -4737,7 +4737,7 @@
         <v>20</v>
       </c>
       <c r="E143" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
         <v>16</v>
@@ -4767,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F144" t="n">
         <v>5</v>
@@ -4797,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F145" t="n">
         <v>6</v>
@@ -4827,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F146" t="n">
         <v>70</v>
@@ -4857,7 +4857,7 @@
         <v>18</v>
       </c>
       <c r="E147" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F147" t="n">
         <v>3</v>
@@ -4887,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="E148" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
         <v>8</v>
@@ -4917,7 +4917,7 @@
         <v>13</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F149" t="n">
         <v>70</v>
@@ -4947,7 +4947,7 @@
         <v>13</v>
       </c>
       <c r="E150" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F150" t="n">
         <v>-10</v>
@@ -4981,7 +4981,7 @@
         <v>13</v>
       </c>
       <c r="E151" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F151" t="n">
         <v>70</v>
@@ -5011,7 +5011,7 @@
         <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F152" t="n">
         <v>17</v>
@@ -5041,7 +5041,7 @@
         <v>14</v>
       </c>
       <c r="E153" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F153" t="n">
         <v>70</v>
@@ -5071,7 +5071,7 @@
         <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F154" t="n">
         <v>11</v>
@@ -5101,7 +5101,7 @@
         <v>16</v>
       </c>
       <c r="E155" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -5131,7 +5131,7 @@
         <v>16</v>
       </c>
       <c r="E156" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F156" t="n">
         <v>7</v>
@@ -5161,7 +5161,7 @@
         <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F157" t="n">
         <v>7</v>
@@ -5191,7 +5191,7 @@
         <v>15</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F158" t="n">
         <v>4</v>
@@ -5221,7 +5221,7 @@
         <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F159" t="n">
         <v>70</v>
@@ -5251,7 +5251,7 @@
         <v>15</v>
       </c>
       <c r="E160" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F160" t="n">
         <v>70</v>
@@ -5281,7 +5281,7 @@
         <v>18</v>
       </c>
       <c r="E161" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F161" t="n">
         <v>70</v>
@@ -5311,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="E162" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F162" t="n">
         <v>70</v>
@@ -5341,7 +5341,7 @@
         <v>19</v>
       </c>
       <c r="E163" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F163" t="n">
         <v>-2</v>
@@ -5371,7 +5371,7 @@
         <v>19</v>
       </c>
       <c r="E164" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F164" t="n">
         <v>70</v>
@@ -5401,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="E165" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F165" t="n">
         <v>70</v>
@@ -5412,3142 +5412,6 @@
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>DB+3+4</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>30</v>
-      </c>
-      <c r="D166" t="n">
-        <v>26</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16</v>
-      </c>
-      <c r="F166" t="n">
-        <v>70</v>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>B+1</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>14</v>
-      </c>
-      <c r="D167" t="n">
-        <v>14</v>
-      </c>
-      <c r="E167" t="n">
-        <v>8</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3</v>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>B+1,1</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>H,H</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>30</v>
-      </c>
-      <c r="D168" t="n">
-        <v>14</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F168" t="n">
-        <v>8</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>B+1,1,2</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>H,H,H</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>50</v>
-      </c>
-      <c r="D169" t="n">
-        <v>14</v>
-      </c>
-      <c r="E169" t="n">
-        <v>5</v>
-      </c>
-      <c r="F169" t="n">
-        <v>70</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>B+2</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>21</v>
-      </c>
-      <c r="D170" t="n">
-        <v>18</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F170" t="n">
-        <v>70</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Heat B+2, F</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>21</v>
-      </c>
-      <c r="D171" t="n">
-        <v>18</v>
-      </c>
-      <c r="E171" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F171" t="n">
-        <v>70</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>B+3 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>21</v>
-      </c>
-      <c r="D172" t="n">
-        <v>22</v>
-      </c>
-      <c r="E172" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>17</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Heat B+3,F</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>21</v>
-      </c>
-      <c r="D173" t="n">
-        <v>22</v>
-      </c>
-      <c r="E173" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>70</v>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>B+3</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>21</v>
-      </c>
-      <c r="D174" t="n">
-        <v>22</v>
-      </c>
-      <c r="E174" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F174" t="n">
-        <v>8</v>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>B+4</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>10</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15</v>
-      </c>
-      <c r="E175" t="n">
-        <v>9</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2</v>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>B+4,3</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>20</v>
-      </c>
-      <c r="D176" t="n">
-        <v>15</v>
-      </c>
-      <c r="E176" t="n">
-        <v>10</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>B+4,3,4</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M,M,M </t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>36</v>
-      </c>
-      <c r="D177" t="n">
-        <v>15</v>
-      </c>
-      <c r="E177" t="n">
-        <v>10</v>
-      </c>
-      <c r="F177" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>B+4,3,4,3</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>M,M,M,H</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>59</v>
-      </c>
-      <c r="D178" t="n">
-        <v>15</v>
-      </c>
-      <c r="E178" t="n">
-        <v>7</v>
-      </c>
-      <c r="F178" t="n">
-        <v>70</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>UF+1</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>18</v>
-      </c>
-      <c r="D179" t="n">
-        <v>18</v>
-      </c>
-      <c r="E179" t="n">
-        <v>9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>7</v>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Parry Punch(H/M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>UF+2</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>23</v>
-      </c>
-      <c r="D180" t="n">
-        <v>17</v>
-      </c>
-      <c r="E180" t="n">
-        <v>7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>70</v>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>UF+3</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>20</v>
-      </c>
-      <c r="D181" t="n">
-        <v>21</v>
-      </c>
-      <c r="E181" t="n">
-        <v>16</v>
-      </c>
-      <c r="F181" t="n">
-        <v>70</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>UF+3,4</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>37</v>
-      </c>
-      <c r="D182" t="n">
-        <v>21</v>
-      </c>
-      <c r="E182" t="n">
-        <v>14</v>
-      </c>
-      <c r="F182" t="n">
-        <v>6</v>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>UF+4</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>20</v>
-      </c>
-      <c r="D183" t="n">
-        <v>24</v>
-      </c>
-      <c r="E183" t="n">
-        <v>8</v>
-      </c>
-      <c r="F183" t="n">
-        <v>70</v>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>FF3</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>20</v>
-      </c>
-      <c r="D184" t="n">
-        <v>15</v>
-      </c>
-      <c r="E184" t="n">
-        <v>14</v>
-      </c>
-      <c r="F184" t="n">
-        <v>70</v>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>FF4</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>21</v>
-      </c>
-      <c r="D185" t="n">
-        <v>25</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>13</v>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>FF3+4</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>M,M,SP</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>28</v>
-      </c>
-      <c r="D186" t="n">
-        <v>21</v>
-      </c>
-      <c r="E186" t="n">
-        <v>14</v>
-      </c>
-      <c r="F186" t="n">
-        <v>5</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>FFF3</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>10</v>
-      </c>
-      <c r="D187" t="n">
-        <v>15</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9</v>
-      </c>
-      <c r="F187" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>FFF3,2</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>37</v>
-      </c>
-      <c r="D188" t="n">
-        <v>15</v>
-      </c>
-      <c r="E188" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F188" t="n">
-        <v>70</v>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>FC 1</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>5</v>
-      </c>
-      <c r="D189" t="n">
-        <v>10</v>
-      </c>
-      <c r="E189" t="n">
-        <v>5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6</v>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>FC 2</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>8</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>7</v>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>FC 3</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>10</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16</v>
-      </c>
-      <c r="E191" t="n">
-        <v>17</v>
-      </c>
-      <c r="F191" t="n">
-        <v>-6</v>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>FC 4</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>12</v>
-      </c>
-      <c r="E192" t="n">
-        <v>15</v>
-      </c>
-      <c r="F192" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>WS 1</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>17</v>
-      </c>
-      <c r="D193" t="n">
-        <v>13</v>
-      </c>
-      <c r="E193" t="n">
-        <v>8</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>WS 2</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>14</v>
-      </c>
-      <c r="D194" t="n">
-        <v>15</v>
-      </c>
-      <c r="E194" t="n">
-        <v>13</v>
-      </c>
-      <c r="F194" t="n">
-        <v>70</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>WS 3</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>23</v>
-      </c>
-      <c r="D195" t="n">
-        <v>20</v>
-      </c>
-      <c r="E195" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F195" t="n">
-        <v>16</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>WS 4</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>13</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6</v>
-      </c>
-      <c r="F196" t="n">
-        <v>5</v>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>WS 4,1</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>23</v>
-      </c>
-      <c r="D197" t="n">
-        <v>11</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2</v>
-      </c>
-      <c r="F197" t="n">
-        <v>6</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>WS 4,1,3</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>46</v>
-      </c>
-      <c r="D198" t="n">
-        <v>11</v>
-      </c>
-      <c r="E198" t="n">
-        <v>14</v>
-      </c>
-      <c r="F198" t="n">
-        <v>70</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>FC DF+3</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>17</v>
-      </c>
-      <c r="D199" t="n">
-        <v>18</v>
-      </c>
-      <c r="E199" t="n">
-        <v>13</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Libertador 1</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>14</v>
-      </c>
-      <c r="D200" t="n">
-        <v>13</v>
-      </c>
-      <c r="E200" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>8</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Libertador 1,2</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>H,H</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>34</v>
-      </c>
-      <c r="D201" t="n">
-        <v>13</v>
-      </c>
-      <c r="E201" t="n">
-        <v>5</v>
-      </c>
-      <c r="F201" t="n">
-        <v>70</v>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Libertador 1,2,B</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>14</v>
-      </c>
-      <c r="D202" t="n">
-        <v>13</v>
-      </c>
-      <c r="E202" t="n">
-        <v>15</v>
-      </c>
-      <c r="F202" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador 1,2,F</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>H,H,SP</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>34</v>
-      </c>
-      <c r="D203" t="n">
-        <v>13</v>
-      </c>
-      <c r="E203" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F203" t="n">
-        <v>70</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Libertador 2 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>18</v>
-      </c>
-      <c r="D204" t="n">
-        <v>14</v>
-      </c>
-      <c r="E204" t="n">
-        <v>8</v>
-      </c>
-      <c r="F204" t="n">
-        <v>17</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador 2,F</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>18</v>
-      </c>
-      <c r="D205" t="n">
-        <v>14</v>
-      </c>
-      <c r="E205" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>70</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Libertador 2</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>18</v>
-      </c>
-      <c r="D206" t="n">
-        <v>14</v>
-      </c>
-      <c r="E206" t="n">
-        <v>8</v>
-      </c>
-      <c r="F206" t="n">
-        <v>11</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+11	</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Libertador 3</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>L,SP</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>15</v>
-      </c>
-      <c r="D207" t="n">
-        <v>16</v>
-      </c>
-      <c r="E207" t="n">
-        <v>9</v>
-      </c>
-      <c r="F207" t="n">
-        <v>2</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Libertador 3,1</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>L,M,SP</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>35</v>
-      </c>
-      <c r="D208" t="n">
-        <v>16</v>
-      </c>
-      <c r="E208" t="n">
-        <v>10</v>
-      </c>
-      <c r="F208" t="n">
-        <v>7</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Libertador 4</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>14</v>
-      </c>
-      <c r="D209" t="n">
-        <v>15</v>
-      </c>
-      <c r="E209" t="n">
-        <v>6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>7</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Libertador 4,1</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>24</v>
-      </c>
-      <c r="D210" t="n">
-        <v>15</v>
-      </c>
-      <c r="E210" t="n">
-        <v>2</v>
-      </c>
-      <c r="F210" t="n">
-        <v>4</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Libertador 4,1,2</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>47</v>
-      </c>
-      <c r="D211" t="n">
-        <v>15</v>
-      </c>
-      <c r="E211" t="n">
-        <v>10</v>
-      </c>
-      <c r="F211" t="n">
-        <v>70</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Libertador 4,2</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>35</v>
-      </c>
-      <c r="D212" t="n">
-        <v>15</v>
-      </c>
-      <c r="E212" t="n">
-        <v>13</v>
-      </c>
-      <c r="F212" t="n">
-        <v>70</v>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Libertador 1+2</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>23</v>
-      </c>
-      <c r="D213" t="n">
-        <v>18</v>
-      </c>
-      <c r="E213" t="n">
-        <v>14</v>
-      </c>
-      <c r="F213" t="n">
-        <v>70</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Libertador 3+4</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>25</v>
-      </c>
-      <c r="D214" t="n">
-        <v>16</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5</v>
-      </c>
-      <c r="F214" t="n">
-        <v>70</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Libertador D+4</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>14</v>
-      </c>
-      <c r="D215" t="n">
-        <v>19</v>
-      </c>
-      <c r="E215" t="n">
-        <v>31</v>
-      </c>
-      <c r="F215" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Libertador D+4,4</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>L,H</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>41</v>
-      </c>
-      <c r="D216" t="n">
-        <v>19</v>
-      </c>
-      <c r="E216" t="n">
-        <v>7</v>
-      </c>
-      <c r="F216" t="n">
-        <v>70</v>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador D+3+4</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>27</v>
-      </c>
-      <c r="D217" t="n">
-        <v>16</v>
-      </c>
-      <c r="E217" t="n">
-        <v>9</v>
-      </c>
-      <c r="F217" t="n">
-        <v>70</v>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>DB+3+4</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>30</v>
-      </c>
-      <c r="D218" t="n">
-        <v>26</v>
-      </c>
-      <c r="E218" t="n">
-        <v>16</v>
-      </c>
-      <c r="F218" t="n">
-        <v>70</v>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>B+1</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>14</v>
-      </c>
-      <c r="D219" t="n">
-        <v>14</v>
-      </c>
-      <c r="E219" t="n">
-        <v>8</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>B+1,1</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>H,H</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>30</v>
-      </c>
-      <c r="D220" t="n">
-        <v>14</v>
-      </c>
-      <c r="E220" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>8</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>B+1,1,2</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>H,H,H</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>50</v>
-      </c>
-      <c r="D221" t="n">
-        <v>14</v>
-      </c>
-      <c r="E221" t="n">
-        <v>5</v>
-      </c>
-      <c r="F221" t="n">
-        <v>70</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>B+2</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>21</v>
-      </c>
-      <c r="D222" t="n">
-        <v>18</v>
-      </c>
-      <c r="E222" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F222" t="n">
-        <v>70</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Heat B+2, F</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>21</v>
-      </c>
-      <c r="D223" t="n">
-        <v>18</v>
-      </c>
-      <c r="E223" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F223" t="n">
-        <v>70</v>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>B+3 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>21</v>
-      </c>
-      <c r="D224" t="n">
-        <v>22</v>
-      </c>
-      <c r="E224" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>17</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Heat B+3,F</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>21</v>
-      </c>
-      <c r="D225" t="n">
-        <v>22</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F225" t="n">
-        <v>70</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>B+3</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>21</v>
-      </c>
-      <c r="D226" t="n">
-        <v>22</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>8</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>B+4</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>10</v>
-      </c>
-      <c r="D227" t="n">
-        <v>15</v>
-      </c>
-      <c r="E227" t="n">
-        <v>9</v>
-      </c>
-      <c r="F227" t="n">
-        <v>2</v>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="H227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>B+4,3</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>20</v>
-      </c>
-      <c r="D228" t="n">
-        <v>15</v>
-      </c>
-      <c r="E228" t="n">
-        <v>10</v>
-      </c>
-      <c r="F228" t="n">
-        <v>4</v>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="H228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>B+4,3,4</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M,M,M </t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>36</v>
-      </c>
-      <c r="D229" t="n">
-        <v>15</v>
-      </c>
-      <c r="E229" t="n">
-        <v>10</v>
-      </c>
-      <c r="F229" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>B+4,3,4,3</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>M,M,M,H</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>59</v>
-      </c>
-      <c r="D230" t="n">
-        <v>15</v>
-      </c>
-      <c r="E230" t="n">
-        <v>7</v>
-      </c>
-      <c r="F230" t="n">
-        <v>70</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>UF+1</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>18</v>
-      </c>
-      <c r="D231" t="n">
-        <v>18</v>
-      </c>
-      <c r="E231" t="n">
-        <v>9</v>
-      </c>
-      <c r="F231" t="n">
-        <v>7</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Parry Punch(H/M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>UF+2</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>23</v>
-      </c>
-      <c r="D232" t="n">
-        <v>17</v>
-      </c>
-      <c r="E232" t="n">
-        <v>7</v>
-      </c>
-      <c r="F232" t="n">
-        <v>70</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>UF+3</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>20</v>
-      </c>
-      <c r="D233" t="n">
-        <v>21</v>
-      </c>
-      <c r="E233" t="n">
-        <v>16</v>
-      </c>
-      <c r="F233" t="n">
-        <v>70</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>UF+3,4</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>H,M</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>37</v>
-      </c>
-      <c r="D234" t="n">
-        <v>21</v>
-      </c>
-      <c r="E234" t="n">
-        <v>14</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>UF+4</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>20</v>
-      </c>
-      <c r="D235" t="n">
-        <v>24</v>
-      </c>
-      <c r="E235" t="n">
-        <v>8</v>
-      </c>
-      <c r="F235" t="n">
-        <v>70</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>FF3</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>20</v>
-      </c>
-      <c r="D236" t="n">
-        <v>15</v>
-      </c>
-      <c r="E236" t="n">
-        <v>14</v>
-      </c>
-      <c r="F236" t="n">
-        <v>70</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>FF4</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>21</v>
-      </c>
-      <c r="D237" t="n">
-        <v>25</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>13</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>FF3+4</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>M,M,SP</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>28</v>
-      </c>
-      <c r="D238" t="n">
-        <v>21</v>
-      </c>
-      <c r="E238" t="n">
-        <v>14</v>
-      </c>
-      <c r="F238" t="n">
-        <v>5</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>FFF3</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>10</v>
-      </c>
-      <c r="D239" t="n">
-        <v>15</v>
-      </c>
-      <c r="E239" t="n">
-        <v>9</v>
-      </c>
-      <c r="F239" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>FFF3,2</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>37</v>
-      </c>
-      <c r="D240" t="n">
-        <v>15</v>
-      </c>
-      <c r="E240" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F240" t="n">
-        <v>70</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>FC 1</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>10</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>6</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>FC 2</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>8</v>
-      </c>
-      <c r="D242" t="n">
-        <v>11</v>
-      </c>
-      <c r="E242" t="n">
-        <v>4</v>
-      </c>
-      <c r="F242" t="n">
-        <v>7</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>FC 3</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>10</v>
-      </c>
-      <c r="D243" t="n">
-        <v>16</v>
-      </c>
-      <c r="E243" t="n">
-        <v>17</v>
-      </c>
-      <c r="F243" t="n">
-        <v>-6</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>FC 4</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>6</v>
-      </c>
-      <c r="D244" t="n">
-        <v>12</v>
-      </c>
-      <c r="E244" t="n">
-        <v>15</v>
-      </c>
-      <c r="F244" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>WS 1</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>17</v>
-      </c>
-      <c r="D245" t="n">
-        <v>13</v>
-      </c>
-      <c r="E245" t="n">
-        <v>8</v>
-      </c>
-      <c r="F245" t="n">
-        <v>6</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>WS 2</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>14</v>
-      </c>
-      <c r="D246" t="n">
-        <v>15</v>
-      </c>
-      <c r="E246" t="n">
-        <v>13</v>
-      </c>
-      <c r="F246" t="n">
-        <v>70</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>WS 3</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>23</v>
-      </c>
-      <c r="D247" t="n">
-        <v>20</v>
-      </c>
-      <c r="E247" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F247" t="n">
-        <v>16</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>WS 4</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>13</v>
-      </c>
-      <c r="D248" t="n">
-        <v>11</v>
-      </c>
-      <c r="E248" t="n">
-        <v>6</v>
-      </c>
-      <c r="F248" t="n">
-        <v>5</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>WS 4,1</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>23</v>
-      </c>
-      <c r="D249" t="n">
-        <v>11</v>
-      </c>
-      <c r="E249" t="n">
-        <v>2</v>
-      </c>
-      <c r="F249" t="n">
-        <v>6</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>WS 4,1,3</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>46</v>
-      </c>
-      <c r="D250" t="n">
-        <v>11</v>
-      </c>
-      <c r="E250" t="n">
-        <v>14</v>
-      </c>
-      <c r="F250" t="n">
-        <v>70</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>FC DF+3</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>17</v>
-      </c>
-      <c r="D251" t="n">
-        <v>18</v>
-      </c>
-      <c r="E251" t="n">
-        <v>13</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
-      </c>
-      <c r="H251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Libertador 1</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>14</v>
-      </c>
-      <c r="D252" t="n">
-        <v>13</v>
-      </c>
-      <c r="E252" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F252" t="n">
-        <v>8</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>Libertador 1,2</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>H,H</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>34</v>
-      </c>
-      <c r="D253" t="n">
-        <v>13</v>
-      </c>
-      <c r="E253" t="n">
-        <v>5</v>
-      </c>
-      <c r="F253" t="n">
-        <v>70</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Libertador 1,2,B</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>14</v>
-      </c>
-      <c r="D254" t="n">
-        <v>13</v>
-      </c>
-      <c r="E254" t="n">
-        <v>15</v>
-      </c>
-      <c r="F254" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador 1,2,F</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>H,H,SP</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>34</v>
-      </c>
-      <c r="D255" t="n">
-        <v>13</v>
-      </c>
-      <c r="E255" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F255" t="n">
-        <v>70</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Libertador 2 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>18</v>
-      </c>
-      <c r="D256" t="n">
-        <v>14</v>
-      </c>
-      <c r="E256" t="n">
-        <v>8</v>
-      </c>
-      <c r="F256" t="n">
-        <v>17</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador 2,F</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>18</v>
-      </c>
-      <c r="D257" t="n">
-        <v>14</v>
-      </c>
-      <c r="E257" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F257" t="n">
-        <v>70</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>Libertador 2</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>18</v>
-      </c>
-      <c r="D258" t="n">
-        <v>14</v>
-      </c>
-      <c r="E258" t="n">
-        <v>8</v>
-      </c>
-      <c r="F258" t="n">
-        <v>11</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+11	</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Libertador 3</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>L,SP</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>15</v>
-      </c>
-      <c r="D259" t="n">
-        <v>16</v>
-      </c>
-      <c r="E259" t="n">
-        <v>9</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Libertador 3,1</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>L,M,SP</t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v>35</v>
-      </c>
-      <c r="D260" t="n">
-        <v>16</v>
-      </c>
-      <c r="E260" t="n">
-        <v>10</v>
-      </c>
-      <c r="F260" t="n">
-        <v>7</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Libertador 4</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>14</v>
-      </c>
-      <c r="D261" t="n">
-        <v>15</v>
-      </c>
-      <c r="E261" t="n">
-        <v>6</v>
-      </c>
-      <c r="F261" t="n">
-        <v>7</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Libertador 4,1</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>24</v>
-      </c>
-      <c r="D262" t="n">
-        <v>15</v>
-      </c>
-      <c r="E262" t="n">
-        <v>2</v>
-      </c>
-      <c r="F262" t="n">
-        <v>4</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Libertador 4,1,2</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>47</v>
-      </c>
-      <c r="D263" t="n">
-        <v>15</v>
-      </c>
-      <c r="E263" t="n">
-        <v>10</v>
-      </c>
-      <c r="F263" t="n">
-        <v>70</v>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Libertador 4,2</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>35</v>
-      </c>
-      <c r="D264" t="n">
-        <v>15</v>
-      </c>
-      <c r="E264" t="n">
-        <v>13</v>
-      </c>
-      <c r="F264" t="n">
-        <v>70</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Libertador 1+2</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>23</v>
-      </c>
-      <c r="D265" t="n">
-        <v>18</v>
-      </c>
-      <c r="E265" t="n">
-        <v>14</v>
-      </c>
-      <c r="F265" t="n">
-        <v>70</v>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Libertador 3+4</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>25</v>
-      </c>
-      <c r="D266" t="n">
-        <v>16</v>
-      </c>
-      <c r="E266" t="n">
-        <v>5</v>
-      </c>
-      <c r="F266" t="n">
-        <v>70</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Libertador D+4</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>14</v>
-      </c>
-      <c r="D267" t="n">
-        <v>19</v>
-      </c>
-      <c r="E267" t="n">
-        <v>31</v>
-      </c>
-      <c r="F267" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Libertador D+4,4</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>L,H</t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>41</v>
-      </c>
-      <c r="D268" t="n">
-        <v>19</v>
-      </c>
-      <c r="E268" t="n">
-        <v>7</v>
-      </c>
-      <c r="F268" t="n">
-        <v>70</v>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Heat&amp;Libertador D+3+4</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v>27</v>
-      </c>
-      <c r="D269" t="n">
-        <v>16</v>
-      </c>
-      <c r="E269" t="n">
-        <v>9</v>
-      </c>
-      <c r="F269" t="n">
-        <v>70</v>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H269" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
